--- a/Documents/1_ocean_acidification/0_metadata_summer_school.xlsx
+++ b/Documents/1_ocean_acidification/0_metadata_summer_school.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0_Nuria\Courses\20250915_Summer_School_Euromarine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://publicadministrationis-my.sharepoint.com/personal/einar_petur_jonsson_hafogvatn_is/Documents/Documents/surt/BOAT/Ischia/R_Git/nuriateixidolab/nuriateixidolab.github.io/Documents/1_ocean_acidification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448B0612-8E0C-4DB6-901A-9716605ECC1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{448B0612-8E0C-4DB6-901A-9716605ECC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3BC7E7-5225-F749-9354-F6FBA83BA62E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ph_sensors" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>sensor_id</t>
   </si>
@@ -70,25 +70,31 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>tris</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>XXXX</t>
-  </si>
-  <si>
     <t>pH_hobo</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>2_XXXX</t>
-  </si>
-  <si>
     <t>lab</t>
+  </si>
+  <si>
+    <t>2_ELOW</t>
+  </si>
+  <si>
+    <t>3_ELOW</t>
+  </si>
+  <si>
+    <t>ELOW</t>
+  </si>
+  <si>
+    <t>deployment_ELOW_south</t>
+  </si>
+  <si>
+    <t>tris_calibration</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -110,18 +116,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,6 +142,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -145,6 +155,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -168,47 +184,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,52 +441,52 @@
   </sheetPr>
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="3" width="12.5703125" style="10"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -495,80 +507,157 @@
       <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.75">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+    <row r="2" spans="1:18" ht="16">
+      <c r="A2" s="16">
+        <v>22068746</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="19">
-        <v>45915</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="15">
+        <v>45916</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="I2" s="15">
+        <v>45916</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0.66597222222222219</v>
+      </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="12.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="K3" s="1"/>
+    <row r="3" spans="1:18" ht="16">
+      <c r="A3" s="16">
+        <v>22068746</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>45916</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="I3" s="15">
+        <v>45916</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="12.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="1"/>
+    <row r="4" spans="1:18" ht="16">
+      <c r="A4" s="16">
+        <v>22068747</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>45916</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.65208333333333335</v>
+      </c>
+      <c r="I4" s="15">
+        <v>45916</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="12.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="K5" s="1"/>
+    <row r="5" spans="1:18" ht="16">
+      <c r="A5" s="16">
+        <v>22068747</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="15">
+        <v>45916</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="I5" s="15">
+        <v>45916</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="12.75">
+    <row r="6" spans="1:18" ht="13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -580,7 +669,7 @@
       <c r="K6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="12.75">
+    <row r="7" spans="1:18" ht="13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -594,7 +683,7 @@
       <c r="K7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="12.75">
+    <row r="8" spans="1:18" ht="13">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -608,81 +697,81 @@
       <c r="K8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="12.75">
+    <row r="9" spans="1:18" ht="13">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="12.75">
+    <row r="10" spans="1:18" ht="13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="12.75">
+    <row r="11" spans="1:18" ht="13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="12.75">
+    <row r="12" spans="1:18" ht="13">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="12.75">
+    <row r="13" spans="1:18" ht="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="5"/>
       <c r="I13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75">
+    <row r="14" spans="1:18" ht="13">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="5"/>
       <c r="I14" s="1"/>
       <c r="J14" s="5"/>
@@ -691,14 +780,14 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75">
+    <row r="15" spans="1:18" ht="13">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="1"/>
       <c r="J15" s="5"/>
@@ -706,7 +795,7 @@
       <c r="L15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="12.75">
+    <row r="16" spans="1:18" ht="13">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -720,7 +809,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="12.75">
+    <row r="17" spans="1:17" ht="13">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -734,7 +823,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="12.75">
+    <row r="18" spans="1:17" ht="13">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -748,7 +837,7 @@
       <c r="K18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="12.75">
+    <row r="19" spans="1:17" ht="13">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -762,7 +851,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75">
+    <row r="20" spans="1:17" ht="13">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -772,7 +861,7 @@
       <c r="G20" s="1"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="12.75">
+    <row r="21" spans="1:17" ht="13">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -782,7 +871,7 @@
       <c r="G21" s="1"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75">
+    <row r="23" spans="1:17" ht="13">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -790,7 +879,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:17" ht="12.75">
+    <row r="24" spans="1:17" ht="13">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -800,7 +889,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="12.75">
+    <row r="25" spans="1:17" ht="13">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -810,7 +899,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75">
+    <row r="26" spans="1:17" ht="13">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -820,7 +909,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75">
+    <row r="27" spans="1:17" ht="13">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -830,33 +919,33 @@
       <c r="I27" s="1"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75">
+    <row r="29" spans="1:17" ht="13">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="8"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="5"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:17" ht="12.75">
+    <row r="31" spans="1:17" ht="13">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:17" ht="13">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="5"/>
       <c r="I32" s="1"/>
       <c r="J32" s="5"/>
@@ -864,14 +953,14 @@
       <c r="L32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="12.75">
+    <row r="33" spans="1:14" ht="13">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="5"/>
       <c r="I33" s="1"/>
       <c r="J33" s="5"/>
@@ -879,21 +968,21 @@
       <c r="L33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" ht="12.75">
+    <row r="34" spans="1:14" ht="13">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="5"/>
       <c r="I34" s="1"/>
       <c r="J34" s="5"/>
       <c r="K34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="12.75">
+    <row r="35" spans="1:14" ht="13">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -905,7 +994,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:14" ht="12.75">
+    <row r="36" spans="1:14" ht="13">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -918,553 +1007,192 @@
       <c r="J36" s="5"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="12.75">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" ht="12.75">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:14" ht="12.75">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="1:14" ht="12.75">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
+    <row r="37" spans="1:14" ht="13">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" ht="13">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" ht="13">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="41" spans="1:14" ht="13">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:14" ht="15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:14" ht="15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="14"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:14" ht="15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="13"/>
     </row>
     <row r="46" spans="1:14" ht="15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="14"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:14" ht="15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="14"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:14" ht="15">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="1:12" ht="15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" ht="15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="1:12" ht="15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="1:12" ht="15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="1:12" ht="15">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="1:12" ht="12.75">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:12" ht="12.75">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-    </row>
-    <row r="1001" spans="8:8" ht="12.75">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" ht="15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" ht="15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" ht="15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="1:11" ht="15">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" ht="15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" ht="13">
+      <c r="I54" s="11"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11" ht="13">
+      <c r="I55" s="11"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="1001" spans="8:8" ht="13">
       <c r="H1001" s="5"/>
     </row>
   </sheetData>

--- a/Documents/1_ocean_acidification/0_metadata_summer_school.xlsx
+++ b/Documents/1_ocean_acidification/0_metadata_summer_school.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://publicadministrationis-my.sharepoint.com/personal/einar_petur_jonsson_hafogvatn_is/Documents/Documents/surt/BOAT/Ischia/R_Git/nuriateixidolab/nuriateixidolab.github.io/Documents/1_ocean_acidification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{448B0612-8E0C-4DB6-901A-9716605ECC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC3BC7E7-5225-F749-9354-F6FBA83BA62E}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{448B0612-8E0C-4DB6-901A-9716605ECC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C854DAA2-A982-2E40-AD78-747ADED6C987}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>sensor_id</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>tris_calibration</t>
+  </si>
+  <si>
+    <t>22068746 2025-09-16_hobo2_tris</t>
+  </si>
+  <si>
+    <t>22068746 2025-09-16_hobo2</t>
+  </si>
+  <si>
+    <t>22068747 2025-09-16_hobo3_tris</t>
+  </si>
+  <si>
+    <t>22068747 2025-09-16_hobo3</t>
   </si>
 </sst>
 </file>
@@ -236,6 +248,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,7 +458,7 @@
   <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -453,6 +469,7 @@
     <col min="12" max="12" width="20.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
@@ -545,7 +562,9 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="16">
@@ -582,6 +601,9 @@
       <c r="K3" s="1">
         <v>5</v>
       </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="16">
@@ -618,6 +640,9 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="16">
@@ -654,7 +679,9 @@
       <c r="K5" s="1">
         <v>5</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="13">
